--- a/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,6; 37,89</t>
+          <t>30,58; 38,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,31; 43,12</t>
+          <t>37,46; 42,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,45; 40,23</t>
+          <t>35,51; 40,14</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,81; 26,24</t>
+          <t>21,71; 26,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,8; 46,87</t>
+          <t>29,08; 46,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,28; 35,42</t>
+          <t>26,28; 35,07</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 30,11</t>
+          <t>22,48; 30,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,76; 33,74</t>
+          <t>27,74; 34,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,2; 31,23</t>
+          <t>25,98; 31,34</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,26; 27,84</t>
+          <t>24,38; 28,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 41,25</t>
+          <t>31,66; 42,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 34,97</t>
+          <t>28,85; 34,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>29,62%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33,27%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34,35%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>43,44%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40,06%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39,9%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35,54%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37,26%</t>
         </is>
       </c>
     </row>
@@ -579,17 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,58; 38,08</t>
+          <t>24,36; 29,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,46; 42,92</t>
+          <t>31,62; 37,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,51; 40,14</t>
+          <t>26,35; 32,78</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29,69; 37,04</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31,81; 36,89</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40,26; 46,07</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37,09; 43,4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 42,64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 32,99</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37,6; 41,82</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>33,3; 37,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>35,01; 39,72</t>
         </is>
       </c>
     </row>
@@ -606,17 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31,41%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27,01%</t>
         </is>
       </c>
     </row>
@@ -629,17 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,71; 26,49</t>
+          <t>12,39; 15,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,08; 46,28</t>
+          <t>20,51; 24,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,28; 35,07</t>
+          <t>19,87; 23,69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 24,56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 19,74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 30,01</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 26,86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27,22; 44,93</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 17,25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 26,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 24,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24,57; 33,45</t>
         </is>
       </c>
     </row>
@@ -656,17 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>20,83%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,13%</t>
         </is>
       </c>
     </row>
@@ -679,17 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,48; 30,44</t>
+          <t>13,35; 20,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,74; 34,34</t>
+          <t>18,78; 26,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,98; 31,34</t>
+          <t>16,96; 24,53</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 26,55</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 20,19</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 22,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18,01; 25,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24,69; 30,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 19,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,12; 23,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,78; 23,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 27,76</t>
         </is>
       </c>
     </row>
@@ -706,17 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32,55%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28,57%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25,96%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28,59%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,38; 28,01</t>
+          <t>16,94; 19,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 42,26</t>
+          <t>24,36; 27,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,85; 34,61</t>
+          <t>21,77; 24,83</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22,5; 25,98</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 25,72</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31,1; 34,29</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27,02; 30,24</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29,88; 40,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 22,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28,19; 30,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24,9; 27,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 32,8</t>
         </is>
       </c>
     </row>
@@ -751,12 +1211,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 29,69</t>
+          <t>24,24; 29,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,62; 37,85</t>
+          <t>31,49; 37,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,35; 32,78</t>
+          <t>26,37; 33,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,69; 37,04</t>
+          <t>29,73; 36,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,81; 36,89</t>
+          <t>31,67; 36,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,26; 46,07</t>
+          <t>40,62; 46,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,09; 43,4</t>
+          <t>36,84; 43,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,23; 42,64</t>
+          <t>37,01; 42,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,17; 32,99</t>
+          <t>29,16; 33,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,6; 41,82</t>
+          <t>37,54; 41,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,3; 37,78</t>
+          <t>33,22; 37,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,01; 39,72</t>
+          <t>34,93; 39,75</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 15,89</t>
+          <t>12,53; 16,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,51; 24,12</t>
+          <t>20,42; 24,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,87; 23,69</t>
+          <t>19,67; 23,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 24,56</t>
+          <t>20,2; 24,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 19,74</t>
+          <t>15,91; 19,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 30,01</t>
+          <t>25,73; 29,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,95; 26,86</t>
+          <t>22,99; 27,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,22; 44,93</t>
+          <t>26,97; 45,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,56; 17,25</t>
+          <t>14,58; 17,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,49; 26,35</t>
+          <t>23,37; 26,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,84; 24,56</t>
+          <t>21,83; 24,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,57; 33,45</t>
+          <t>24,55; 34,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 20,16</t>
+          <t>13,29; 19,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,78; 26,86</t>
+          <t>18,58; 26,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 24,53</t>
+          <t>17,21; 24,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,24; 26,55</t>
+          <t>19,16; 26,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,36; 20,19</t>
+          <t>13,58; 20,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,29; 22,66</t>
+          <t>15,39; 22,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,01; 25,0</t>
+          <t>17,98; 25,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,69; 30,97</t>
+          <t>24,32; 30,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 19,21</t>
+          <t>14,19; 19,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 23,76</t>
+          <t>18,17; 23,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,78; 23,78</t>
+          <t>18,57; 23,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,86; 27,76</t>
+          <t>22,8; 27,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,94; 19,92</t>
+          <t>17,16; 20,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,36; 27,65</t>
+          <t>24,47; 27,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,77; 24,83</t>
+          <t>21,77; 24,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,5; 25,98</t>
+          <t>22,37; 25,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,67; 25,72</t>
+          <t>22,68; 25,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,1; 34,29</t>
+          <t>30,91; 34,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,02; 30,24</t>
+          <t>26,98; 30,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,88; 40,85</t>
+          <t>30,05; 39,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,33; 22,43</t>
+          <t>20,32; 22,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,19; 30,38</t>
+          <t>28,27; 30,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,9; 27,15</t>
+          <t>24,92; 26,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,97; 32,8</t>
+          <t>26,96; 33,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,27%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>37,4%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,73; 36,95</t>
+          <t>29,91; 37,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,01; 42,63</t>
+          <t>37,37; 42,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,93; 39,75</t>
+          <t>35,05; 39,84</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>27,28%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,2; 24,3</t>
+          <t>14,5; 23,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,97; 45,06</t>
+          <t>26,04; 55,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,55; 34,18</t>
+          <t>22,31; 38,12</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>25,56%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,33</t>
+          <t>19,81; 28,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,32; 30,48</t>
+          <t>24,55; 30,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,75</t>
+          <t>23,13; 28,4</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,75%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,77</t>
+          <t>17,86; 25,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,05; 39,91</t>
+          <t>29,57; 47,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,96; 33,37</t>
+          <t>25,58; 36,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 29,8</t>
+          <t>24,33; 29,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,49; 37,94</t>
+          <t>31,51; 37,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,37; 33,03</t>
+          <t>26,55; 32,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,91; 37,23</t>
+          <t>29,77; 37,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,67; 36,81</t>
+          <t>31,79; 36,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,62; 46,44</t>
+          <t>40,73; 46,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,84; 43,57</t>
+          <t>37,15; 43,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,37; 42,85</t>
+          <t>37,27; 42,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,16; 33,19</t>
+          <t>29,09; 32,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,54; 41,84</t>
+          <t>37,69; 41,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,22; 37,95</t>
+          <t>33,1; 37,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,05; 39,84</t>
+          <t>35,27; 39,67</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 16,01</t>
+          <t>12,4; 15,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,42; 24,4</t>
+          <t>20,37; 24,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,67; 23,47</t>
+          <t>19,76; 23,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,94</t>
+          <t>13,24; 24,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,91; 19,7</t>
+          <t>15,89; 19,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,73; 29,98</t>
+          <t>25,56; 30,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,99; 27,18</t>
+          <t>23,0; 27,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,04; 55,13</t>
+          <t>26,1; 51,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 17,24</t>
+          <t>14,54; 17,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,37; 26,49</t>
+          <t>23,48; 26,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,83; 24,52</t>
+          <t>21,83; 24,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,31; 38,12</t>
+          <t>22,46; 37,4</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 19,97</t>
+          <t>13,61; 19,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,58; 26,9</t>
+          <t>18,75; 26,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,7</t>
+          <t>17,36; 25,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,81; 28,14</t>
+          <t>19,65; 28,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 20,19</t>
+          <t>13,6; 20,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,39; 22,95</t>
+          <t>15,56; 22,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,98; 25,18</t>
+          <t>17,74; 25,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,55; 30,74</t>
+          <t>24,45; 30,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 19,25</t>
+          <t>14,18; 19,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 23,86</t>
+          <t>18,01; 23,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,57; 23,72</t>
+          <t>18,51; 23,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,13; 28,4</t>
+          <t>23,12; 28,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 20,12</t>
+          <t>17,2; 19,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,47; 27,53</t>
+          <t>24,35; 27,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,77; 24,58</t>
+          <t>21,74; 24,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 25,37</t>
+          <t>17,06; 25,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 25,65</t>
+          <t>22,6; 25,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,91; 34,22</t>
+          <t>31,08; 34,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 30,03</t>
+          <t>26,92; 30,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,57; 47,33</t>
+          <t>29,33; 46,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,32; 22,3</t>
+          <t>20,31; 22,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,27; 30,51</t>
+          <t>28,1; 30,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,92; 26,92</t>
+          <t>24,71; 26,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,58; 36,5</t>
+          <t>25,8; 35,72</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>274940</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>336091</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>222842</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>167398</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>449465</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>579793</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>395032</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>289193</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>724405</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>915883</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>617874</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>456592</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>248008; 302009</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>305394; 365069</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>199766; 246895</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>148755; 187752</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>415978; 483248</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>543574; 617701</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>366315; 430047</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>268701; 307318</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>677125; 767029</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>868386; 965149</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>575436; 659049</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>430556; 484280</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>233768</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>436755</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>446845</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>456643</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>278916</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>487282</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>492508</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>740148</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>512685</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>924037</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>939354</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1196791</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>206425; 263182</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>398487; 476263</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>409320; 485479</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>292690; 530755</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>249940; 310489</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>447763; 525988</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>455901; 536500</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>567874; 1116615</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>470899; 555299</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>870693; 982731</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>884796; 994355</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>985384; 1640525</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>89670</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>108662</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>113897</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>149923</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>78618</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>86686</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>117333</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>180428</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>168288</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>195348</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>231230</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>330351</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74189; 108402</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>90207; 129242</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>94937; 138495</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>125423; 182378</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64655; 95720</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>71353; 103463</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>97436; 137681</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>159959; 202339</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>144716; 194702</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>169298; 220686</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>202926; 259136</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>298828; 365384</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2685</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>598379</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>881507</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>783584</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>773965</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>807000</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1153761</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1004874</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1209769</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1405378</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2035268</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1788458</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1983734</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>555576; 640897</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>829514; 936187</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>732885; 831992</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>571206; 856593</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>758572; 855771</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1101909; 1208148</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>947014; 1055556</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1041512; 1655176</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1338043; 1468558</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1953248; 2117015</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1702079; 1858661</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1780290; 2464355</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>